--- a/IMKL2.x/4. waardelijsten/IMKL_Waardelijsten-changelog.xlsx
+++ b/IMKL2.x/4. waardelijsten/IMKL_Waardelijsten-changelog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pjanssen\Documents\GitHub\imkl2015-review\IMKL2.x\4. waardelijsten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{350B2E09-9A92-4791-BA0B-6395CCFAFF03}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40DE373B-4452-4F9C-B624-285F26B4983D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{894B1FF5-8DFC-4651-A7C4-67B2EE5B0E46}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="38">
   <si>
     <t>Datum</t>
   </si>
@@ -81,18 +81,12 @@
     <t>toegevoegd</t>
   </si>
   <si>
-    <t>Alle waarden vertaald naar Nederlands</t>
-  </si>
-  <si>
     <t>bgtVectorinformatie</t>
   </si>
   <si>
     <t>bgtPlan verwijderd</t>
   </si>
   <si>
-    <t>bgtBestand -&gt; bgtRaster</t>
-  </si>
-  <si>
     <t>opmerking</t>
   </si>
   <si>
@@ -123,13 +117,37 @@
     <t>bijlageTypeValue</t>
   </si>
   <si>
-    <t>Tabblad waarden: Symbolen voor appurtenance toegvoegd</t>
-  </si>
-  <si>
     <t>ExtraDetailInfoTypeValue</t>
   </si>
   <si>
     <t>Handige combinatie van appurtenance waarden en de symbolen voor visualisatie. Gebaseerd op PMKL</t>
+  </si>
+  <si>
+    <t>Alle waarden vertaald naar Nederlands (conform vertaallijst)</t>
+  </si>
+  <si>
+    <t>storm = hemelwater afvoer -&gt; hemelwater</t>
+  </si>
+  <si>
+    <t>bgtBestaand -&gt; bgtRaster</t>
+  </si>
+  <si>
+    <t>Tabblad waarde: Symbolen voor appurtenance toegvoegd</t>
+  </si>
+  <si>
+    <t>VerticalPositionValue</t>
+  </si>
+  <si>
+    <t>op maaiveld</t>
+  </si>
+  <si>
+    <t>boven maaiveld</t>
+  </si>
+  <si>
+    <t>ondergronds</t>
+  </si>
+  <si>
+    <t>SewerWaterTypeValue</t>
   </si>
 </sst>
 </file>
@@ -581,16 +599,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57B8AAF5-2631-4C35-B121-F1562B5D065D}">
-  <dimension ref="A1:J178"/>
+  <dimension ref="A1:J181"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
+      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" style="8" customWidth="1"/>
+    <col min="1" max="1" width="19.140625" style="8" customWidth="1"/>
     <col min="2" max="2" width="31.42578125" style="8" customWidth="1"/>
     <col min="3" max="4" width="48.28515625" style="8" customWidth="1"/>
     <col min="5" max="5" width="19.140625" style="15" bestFit="1" customWidth="1"/>
@@ -603,13 +621,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E1" s="9" t="s">
         <v>2</v>
@@ -620,7 +638,7 @@
       <c r="A2" s="17"/>
       <c r="B2" s="6"/>
       <c r="C2" s="5" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="10"/>
@@ -634,7 +652,7 @@
         <v>13</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>14</v>
@@ -652,7 +670,7 @@
         <v>13</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>14</v>
@@ -667,10 +685,10 @@
         <v>20200423</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>14</v>
@@ -685,13 +703,13 @@
         <v>20200423</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E6" s="10">
         <v>286</v>
@@ -703,13 +721,13 @@
         <v>20200423</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7" s="10">
         <v>286</v>
@@ -721,13 +739,13 @@
         <v>20200423</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E8" s="10">
         <v>194</v>
@@ -739,13 +757,13 @@
         <v>20200508</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E9" s="10">
         <v>195</v>
@@ -758,48 +776,69 @@
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="6" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E10" s="10"/>
       <c r="F10" s="5"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
+      <c r="A11" s="18">
+        <v>20200610</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>34</v>
+      </c>
       <c r="D11" s="6"/>
       <c r="E11" s="10"/>
       <c r="F11" s="5"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
+      <c r="A12" s="18">
+        <v>20200610</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="D12" s="6"/>
       <c r="E12" s="10"/>
-      <c r="F12" s="6"/>
-      <c r="J12" s="11"/>
+      <c r="F12" s="5"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
+      <c r="A13" s="18">
+        <v>20200610</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>36</v>
+      </c>
       <c r="D13" s="6"/>
       <c r="E13" s="10"/>
       <c r="F13" s="5"/>
-      <c r="J13" s="11"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
+      <c r="A14" s="18">
+        <v>20200626</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="D14" s="6"/>
       <c r="E14" s="10"/>
       <c r="F14" s="5"/>
-      <c r="J14" s="11"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="6"/>
@@ -816,7 +855,7 @@
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
       <c r="E16" s="10"/>
-      <c r="F16" s="6"/>
+      <c r="F16" s="5"/>
       <c r="J16" s="11"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
@@ -826,7 +865,7 @@
       <c r="D17" s="6"/>
       <c r="E17" s="10"/>
       <c r="F17" s="5"/>
-      <c r="J17" s="12"/>
+      <c r="J17" s="11"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="6"/>
@@ -835,6 +874,7 @@
       <c r="D18" s="6"/>
       <c r="E18" s="10"/>
       <c r="F18" s="6"/>
+      <c r="J18" s="11"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="6"/>
@@ -843,6 +883,7 @@
       <c r="D19" s="6"/>
       <c r="E19" s="10"/>
       <c r="F19" s="6"/>
+      <c r="J19" s="11"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="6"/>
@@ -850,9 +891,10 @@
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="E20" s="10"/>
-      <c r="F20" s="6"/>
-    </row>
-    <row r="21" spans="1:10" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F20" s="5"/>
+      <c r="J20" s="12"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="6"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
@@ -876,7 +918,7 @@
       <c r="E23" s="10"/>
       <c r="F23" s="6"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
@@ -930,7 +972,7 @@
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
       <c r="E30" s="10"/>
-      <c r="F30" s="5"/>
+      <c r="F30" s="6"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="6"/>
@@ -938,7 +980,7 @@
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
       <c r="E31" s="10"/>
-      <c r="F31" s="5"/>
+      <c r="F31" s="6"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="6"/>
@@ -946,7 +988,7 @@
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
       <c r="E32" s="10"/>
-      <c r="F32" s="5"/>
+      <c r="F32" s="6"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="6"/>
@@ -970,7 +1012,7 @@
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
       <c r="E35" s="10"/>
-      <c r="F35" s="6"/>
+      <c r="F35" s="5"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="6"/>
@@ -994,7 +1036,7 @@
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
       <c r="E38" s="10"/>
-      <c r="F38" s="5"/>
+      <c r="F38" s="6"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="6"/>
@@ -1142,33 +1184,27 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" s="6"/>
-      <c r="B57" s="5"/>
-      <c r="C57" s="5"/>
-      <c r="D57" s="5"/>
+      <c r="B57" s="6"/>
+      <c r="C57" s="6"/>
+      <c r="D57" s="6"/>
       <c r="E57" s="10"/>
       <c r="F57" s="5"/>
-      <c r="G57" s="12"/>
-      <c r="H57" s="12"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="6"/>
-      <c r="B58" s="5"/>
-      <c r="C58" s="5"/>
-      <c r="D58" s="5"/>
+      <c r="B58" s="6"/>
+      <c r="C58" s="6"/>
+      <c r="D58" s="6"/>
       <c r="E58" s="10"/>
       <c r="F58" s="5"/>
-      <c r="G58" s="12"/>
-      <c r="H58" s="12"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" s="6"/>
-      <c r="B59" s="5"/>
-      <c r="C59" s="5"/>
-      <c r="D59" s="5"/>
+      <c r="B59" s="6"/>
+      <c r="C59" s="6"/>
+      <c r="D59" s="6"/>
       <c r="E59" s="10"/>
       <c r="F59" s="5"/>
-      <c r="G59" s="12"/>
-      <c r="H59" s="12"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" s="6"/>
@@ -1196,7 +1232,7 @@
       <c r="C62" s="5"/>
       <c r="D62" s="5"/>
       <c r="E62" s="10"/>
-      <c r="F62" s="6"/>
+      <c r="F62" s="5"/>
       <c r="G62" s="12"/>
       <c r="H62" s="12"/>
     </row>
@@ -1206,7 +1242,7 @@
       <c r="C63" s="5"/>
       <c r="D63" s="5"/>
       <c r="E63" s="10"/>
-      <c r="F63" s="6"/>
+      <c r="F63" s="5"/>
       <c r="G63" s="12"/>
       <c r="H63" s="12"/>
     </row>
@@ -1226,7 +1262,7 @@
       <c r="C65" s="5"/>
       <c r="D65" s="5"/>
       <c r="E65" s="10"/>
-      <c r="F65" s="5"/>
+      <c r="F65" s="6"/>
       <c r="G65" s="12"/>
       <c r="H65" s="12"/>
     </row>
@@ -1246,7 +1282,7 @@
       <c r="C67" s="5"/>
       <c r="D67" s="5"/>
       <c r="E67" s="10"/>
-      <c r="F67" s="6"/>
+      <c r="F67" s="5"/>
       <c r="G67" s="12"/>
       <c r="H67" s="12"/>
     </row>
@@ -1266,7 +1302,7 @@
       <c r="C69" s="5"/>
       <c r="D69" s="5"/>
       <c r="E69" s="10"/>
-      <c r="F69" s="5"/>
+      <c r="F69" s="6"/>
       <c r="G69" s="12"/>
       <c r="H69" s="12"/>
     </row>
@@ -1276,7 +1312,7 @@
       <c r="C70" s="5"/>
       <c r="D70" s="5"/>
       <c r="E70" s="10"/>
-      <c r="F70" s="5"/>
+      <c r="F70" s="6"/>
       <c r="G70" s="12"/>
       <c r="H70" s="12"/>
     </row>
@@ -1426,7 +1462,7 @@
       <c r="C85" s="5"/>
       <c r="D85" s="5"/>
       <c r="E85" s="10"/>
-      <c r="F85" s="6"/>
+      <c r="F85" s="5"/>
       <c r="G85" s="12"/>
       <c r="H85" s="12"/>
     </row>
@@ -1436,7 +1472,7 @@
       <c r="C86" s="5"/>
       <c r="D86" s="5"/>
       <c r="E86" s="10"/>
-      <c r="F86" s="6"/>
+      <c r="F86" s="5"/>
       <c r="G86" s="12"/>
       <c r="H86" s="12"/>
     </row>
@@ -1446,7 +1482,7 @@
       <c r="C87" s="5"/>
       <c r="D87" s="5"/>
       <c r="E87" s="10"/>
-      <c r="F87" s="6"/>
+      <c r="F87" s="5"/>
       <c r="G87" s="12"/>
       <c r="H87" s="12"/>
     </row>
@@ -1486,7 +1522,7 @@
       <c r="C91" s="5"/>
       <c r="D91" s="5"/>
       <c r="E91" s="10"/>
-      <c r="F91" s="5"/>
+      <c r="F91" s="6"/>
       <c r="G91" s="12"/>
       <c r="H91" s="12"/>
     </row>
@@ -1496,7 +1532,7 @@
       <c r="C92" s="5"/>
       <c r="D92" s="5"/>
       <c r="E92" s="10"/>
-      <c r="F92" s="5"/>
+      <c r="F92" s="6"/>
       <c r="G92" s="12"/>
       <c r="H92" s="12"/>
     </row>
@@ -1506,7 +1542,7 @@
       <c r="C93" s="5"/>
       <c r="D93" s="5"/>
       <c r="E93" s="10"/>
-      <c r="F93" s="5"/>
+      <c r="F93" s="6"/>
       <c r="G93" s="12"/>
       <c r="H93" s="12"/>
     </row>
@@ -1607,6 +1643,8 @@
       <c r="D103" s="5"/>
       <c r="E103" s="10"/>
       <c r="F103" s="5"/>
+      <c r="G103" s="12"/>
+      <c r="H103" s="12"/>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104" s="6"/>
@@ -1615,6 +1653,8 @@
       <c r="D104" s="5"/>
       <c r="E104" s="10"/>
       <c r="F104" s="5"/>
+      <c r="G104" s="12"/>
+      <c r="H104" s="12"/>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105" s="6"/>
@@ -1623,6 +1663,8 @@
       <c r="D105" s="5"/>
       <c r="E105" s="10"/>
       <c r="F105" s="5"/>
+      <c r="G105" s="12"/>
+      <c r="H105" s="12"/>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106" s="6"/>
@@ -1666,7 +1708,7 @@
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111" s="6"/>
-      <c r="B111" s="6"/>
+      <c r="B111" s="5"/>
       <c r="C111" s="5"/>
       <c r="D111" s="5"/>
       <c r="E111" s="10"/>
@@ -1690,7 +1732,7 @@
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114" s="6"/>
-      <c r="B114" s="5"/>
+      <c r="B114" s="6"/>
       <c r="C114" s="5"/>
       <c r="D114" s="5"/>
       <c r="E114" s="10"/>
@@ -1698,49 +1740,49 @@
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115" s="6"/>
-      <c r="B115" s="6"/>
-      <c r="C115" s="6"/>
-      <c r="D115" s="6"/>
+      <c r="B115" s="5"/>
+      <c r="C115" s="5"/>
+      <c r="D115" s="5"/>
       <c r="E115" s="10"/>
       <c r="F115" s="5"/>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116" s="6"/>
-      <c r="B116" s="6"/>
-      <c r="C116" s="6"/>
-      <c r="D116" s="6"/>
+      <c r="B116" s="5"/>
+      <c r="C116" s="5"/>
+      <c r="D116" s="5"/>
       <c r="E116" s="10"/>
       <c r="F116" s="5"/>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117" s="6"/>
-      <c r="B117" s="6"/>
-      <c r="C117" s="6"/>
-      <c r="D117" s="6"/>
+      <c r="B117" s="5"/>
+      <c r="C117" s="5"/>
+      <c r="D117" s="5"/>
       <c r="E117" s="10"/>
       <c r="F117" s="5"/>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A118" s="13"/>
-      <c r="B118" s="7"/>
-      <c r="C118" s="7"/>
-      <c r="D118" s="7"/>
+      <c r="A118" s="6"/>
+      <c r="B118" s="6"/>
+      <c r="C118" s="6"/>
+      <c r="D118" s="6"/>
       <c r="E118" s="10"/>
       <c r="F118" s="5"/>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A119" s="13"/>
-      <c r="B119" s="7"/>
-      <c r="C119" s="7"/>
-      <c r="D119" s="7"/>
+      <c r="A119" s="6"/>
+      <c r="B119" s="6"/>
+      <c r="C119" s="6"/>
+      <c r="D119" s="6"/>
       <c r="E119" s="10"/>
       <c r="F119" s="5"/>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A120" s="13"/>
-      <c r="B120" s="7"/>
-      <c r="C120" s="7"/>
-      <c r="D120" s="7"/>
+      <c r="A120" s="6"/>
+      <c r="B120" s="6"/>
+      <c r="C120" s="6"/>
+      <c r="D120" s="6"/>
       <c r="E120" s="10"/>
       <c r="F120" s="5"/>
     </row>
@@ -1774,7 +1816,7 @@
       <c r="C124" s="7"/>
       <c r="D124" s="7"/>
       <c r="E124" s="10"/>
-      <c r="F124" s="6"/>
+      <c r="F124" s="5"/>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A125" s="13"/>
@@ -1782,31 +1824,31 @@
       <c r="C125" s="7"/>
       <c r="D125" s="7"/>
       <c r="E125" s="10"/>
-      <c r="F125" s="6"/>
+      <c r="F125" s="5"/>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A126" s="7"/>
+      <c r="A126" s="13"/>
       <c r="B126" s="7"/>
       <c r="C126" s="7"/>
       <c r="D126" s="7"/>
-      <c r="E126" s="14"/>
-      <c r="F126" s="6"/>
+      <c r="E126" s="10"/>
+      <c r="F126" s="5"/>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A127" s="7"/>
+      <c r="A127" s="13"/>
       <c r="B127" s="7"/>
       <c r="C127" s="7"/>
       <c r="D127" s="7"/>
-      <c r="E127" s="14"/>
-      <c r="F127" s="7"/>
+      <c r="E127" s="10"/>
+      <c r="F127" s="6"/>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A128" s="7"/>
+      <c r="A128" s="13"/>
       <c r="B128" s="7"/>
       <c r="C128" s="7"/>
       <c r="D128" s="7"/>
-      <c r="E128" s="14"/>
-      <c r="F128" s="7"/>
+      <c r="E128" s="10"/>
+      <c r="F128" s="6"/>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A129" s="7"/>
@@ -1814,7 +1856,7 @@
       <c r="C129" s="7"/>
       <c r="D129" s="7"/>
       <c r="E129" s="14"/>
-      <c r="F129" s="7"/>
+      <c r="F129" s="6"/>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A130" s="7"/>
@@ -2137,12 +2179,27 @@
       <c r="F169" s="7"/>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A170" s="7"/>
+      <c r="B170" s="7"/>
+      <c r="C170" s="7"/>
+      <c r="D170" s="7"/>
+      <c r="E170" s="14"/>
       <c r="F170" s="7"/>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A171" s="7"/>
+      <c r="B171" s="7"/>
+      <c r="C171" s="7"/>
+      <c r="D171" s="7"/>
+      <c r="E171" s="14"/>
       <c r="F171" s="7"/>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A172" s="7"/>
+      <c r="B172" s="7"/>
+      <c r="C172" s="7"/>
+      <c r="D172" s="7"/>
+      <c r="E172" s="14"/>
       <c r="F172" s="7"/>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.2">
@@ -2162,6 +2219,15 @@
     </row>
     <row r="178" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F178" s="7"/>
+    </row>
+    <row r="179" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F179" s="7"/>
+    </row>
+    <row r="180" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F180" s="7"/>
+    </row>
+    <row r="181" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F181" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2236,12 +2302,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2448,15 +2511,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7893A73B-81F0-482A-B793-D93E5F8DCA71}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EB1489CD-B12A-4704-A7E2-006D773FFFBF}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2481,10 +2548,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EB1489CD-B12A-4704-A7E2-006D773FFFBF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7893A73B-81F0-482A-B793-D93E5F8DCA71}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>